--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Erbb3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H2">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I2">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J2">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.688881933158761</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N2">
-        <v>0.688881933158761</v>
+        <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q2">
-        <v>0.909297140043526</v>
+        <v>0.3041169071982223</v>
       </c>
       <c r="R2">
-        <v>0.909297140043526</v>
+        <v>2.737052164784</v>
       </c>
       <c r="S2">
-        <v>0.1084489173753477</v>
+        <v>0.02686830578649925</v>
       </c>
       <c r="T2">
-        <v>0.1084489173753477</v>
+        <v>0.02686830578649924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H3">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I3">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J3">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643020461985116</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N3">
-        <v>0.643020461985116</v>
+        <v>2.112422</v>
       </c>
       <c r="O3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q3">
-        <v>0.8487617963669001</v>
+        <v>1.045532472076445</v>
       </c>
       <c r="R3">
-        <v>0.8487617963669001</v>
+        <v>9.409792248687999</v>
       </c>
       <c r="S3">
-        <v>0.1012290634952833</v>
+        <v>0.09237133978596704</v>
       </c>
       <c r="T3">
-        <v>0.1012290634952833</v>
+        <v>0.09237133978596702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31996078903403</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H4">
-        <v>1.31996078903403</v>
+        <v>4.454504</v>
       </c>
       <c r="I4">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J4">
-        <v>0.4342361098221955</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42642307293178</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N4">
-        <v>1.42642307293178</v>
+        <v>2.190025</v>
       </c>
       <c r="O4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q4">
-        <v>1.882822524843378</v>
+        <v>1.083941680288889</v>
       </c>
       <c r="R4">
-        <v>1.882822524843378</v>
+        <v>9.7554751226</v>
       </c>
       <c r="S4">
-        <v>0.2245581289515645</v>
+        <v>0.09576473991217781</v>
       </c>
       <c r="T4">
-        <v>0.2245581289515645</v>
+        <v>0.09576473991217779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.00399233403287</v>
+        <v>1.484834666666667</v>
       </c>
       <c r="H5">
-        <v>1.00399233403287</v>
+        <v>4.454504</v>
       </c>
       <c r="I5">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350085</v>
       </c>
       <c r="J5">
-        <v>0.3302899063697111</v>
+        <v>0.4307162850350084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.688881933158761</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N5">
-        <v>0.688881933158761</v>
+        <v>4.933073</v>
       </c>
       <c r="O5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q5">
-        <v>0.69163217994514</v>
+        <v>2.441599267865778</v>
       </c>
       <c r="R5">
-        <v>0.69163217994514</v>
+        <v>21.974393410792</v>
       </c>
       <c r="S5">
-        <v>0.08248872434967922</v>
+        <v>0.2157118995503644</v>
       </c>
       <c r="T5">
-        <v>0.08248872434967922</v>
+        <v>0.2157118995503644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.00399233403287</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H6">
-        <v>1.00399233403287</v>
+        <v>3.44053</v>
       </c>
       <c r="I6">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J6">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.643020461985116</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N6">
-        <v>0.643020461985116</v>
+        <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q6">
-        <v>0.645587614459331</v>
+        <v>0.2348910995977778</v>
       </c>
       <c r="R6">
-        <v>0.645587614459331</v>
+        <v>2.11401989638</v>
       </c>
       <c r="S6">
-        <v>0.07699713853240142</v>
+        <v>0.02075230196395025</v>
       </c>
       <c r="T6">
-        <v>0.07699713853240142</v>
+        <v>0.02075230196395025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.00399233403287</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H7">
-        <v>1.00399233403287</v>
+        <v>3.44053</v>
       </c>
       <c r="I7">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J7">
-        <v>0.3302899063697111</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42642307293178</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N7">
-        <v>1.42642307293178</v>
+        <v>2.112422</v>
       </c>
       <c r="O7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q7">
-        <v>1.432117830311117</v>
+        <v>0.8075390292955554</v>
       </c>
       <c r="R7">
-        <v>1.432117830311117</v>
+        <v>7.26785126366</v>
       </c>
       <c r="S7">
-        <v>0.1708040434876305</v>
+        <v>0.07134495011651423</v>
       </c>
       <c r="T7">
-        <v>0.1708040434876305</v>
+        <v>0.07134495011651423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.715777473208264</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H8">
-        <v>0.715777473208264</v>
+        <v>3.44053</v>
       </c>
       <c r="I8">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J8">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.688881933158761</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N8">
-        <v>0.688881933158761</v>
+        <v>2.190025</v>
       </c>
       <c r="O8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q8">
-        <v>0.4930861694552022</v>
+        <v>0.837205190361111</v>
       </c>
       <c r="R8">
-        <v>0.4930861694552022</v>
+        <v>7.534846713249999</v>
       </c>
       <c r="S8">
-        <v>0.05880878636395379</v>
+        <v>0.07396591418708907</v>
       </c>
       <c r="T8">
-        <v>0.05880878636395379</v>
+        <v>0.07396591418708907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.715777473208264</v>
+        <v>1.146843333333333</v>
       </c>
       <c r="H9">
-        <v>0.715777473208264</v>
+        <v>3.44053</v>
       </c>
       <c r="I9">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="J9">
-        <v>0.2354739838080934</v>
+        <v>0.332672795927784</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.643020461985116</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N9">
-        <v>0.643020461985116</v>
+        <v>4.933073</v>
       </c>
       <c r="O9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q9">
-        <v>0.4602595615009169</v>
+        <v>1.885820627632222</v>
       </c>
       <c r="R9">
-        <v>0.4602595615009169</v>
+        <v>16.97238564869</v>
       </c>
       <c r="S9">
-        <v>0.05489366342231911</v>
+        <v>0.1666096296602304</v>
       </c>
       <c r="T9">
-        <v>0.05489366342231911</v>
+        <v>0.1666096296602304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.44705</v>
+      </c>
+      <c r="I10">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J10">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2048153333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.614446</v>
+      </c>
+      <c r="O10">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="P10">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="Q10">
+        <v>0.1670644538111111</v>
+      </c>
+      <c r="R10">
+        <v>1.5035800843</v>
+      </c>
+      <c r="S10">
+        <v>0.01475991214170039</v>
+      </c>
+      <c r="T10">
+        <v>0.01475991214170039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.715777473208264</v>
-      </c>
-      <c r="H10">
-        <v>0.715777473208264</v>
-      </c>
-      <c r="I10">
-        <v>0.2354739838080934</v>
-      </c>
-      <c r="J10">
-        <v>0.2354739838080934</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="N10">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="O10">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="P10">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="Q10">
-        <v>1.021001502869077</v>
-      </c>
-      <c r="R10">
-        <v>1.021001502869077</v>
-      </c>
-      <c r="S10">
-        <v>0.1217715340218205</v>
-      </c>
-      <c r="T10">
-        <v>0.1217715340218205</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.44705</v>
+      </c>
+      <c r="I11">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J11">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7041406666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.112422</v>
+      </c>
+      <c r="O11">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="P11">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="Q11">
+        <v>0.5743558061222221</v>
+      </c>
+      <c r="R11">
+        <v>5.1692022551</v>
+      </c>
+      <c r="S11">
+        <v>0.0507435366593566</v>
+      </c>
+      <c r="T11">
+        <v>0.0507435366593566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.44705</v>
+      </c>
+      <c r="I12">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J12">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7300083333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.190025</v>
+      </c>
+      <c r="O12">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="P12">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="Q12">
+        <v>0.5954556306944444</v>
+      </c>
+      <c r="R12">
+        <v>5.35910067625</v>
+      </c>
+      <c r="S12">
+        <v>0.05260767681476875</v>
+      </c>
+      <c r="T12">
+        <v>0.05260767681476875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8156833333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.44705</v>
+      </c>
+      <c r="I13">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="J13">
+        <v>0.2366109190372076</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.933073</v>
+      </c>
+      <c r="O13">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P13">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q13">
+        <v>1.341275142738889</v>
+      </c>
+      <c r="R13">
+        <v>12.07147628465</v>
+      </c>
+      <c r="S13">
+        <v>0.1184997934213818</v>
+      </c>
+      <c r="T13">
+        <v>0.1184997934213818</v>
       </c>
     </row>
   </sheetData>
